--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/123/word_level_predictions_123.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,215 +3409,215 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>36</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>37</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>38</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>39</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/123/word_level_predictions_123.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,215 +3409,215 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
